--- a/biology/Médecine/Étienne_Burnet/Étienne_Burnet.xlsx
+++ b/biology/Médecine/Étienne_Burnet/Étienne_Burnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Burnet</t>
+          <t>Étienne_Burnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Burnet, né le 11 octobre 1873 à Maurupt-le-Montois et mort le 20 décembre 1960 à Tunis, est un médecin, bactériologiste, immunologiste, romancier et critique littéraire français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Burnet</t>
+          <t>Étienne_Burnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Charles Marie Placide Burnet est le fils de Jean Baptiste Isidore Cyrille, instituteur et de Clémence Eugénie Munier.
-En 1890, il enlève le premier prix d'histoire au Concours général[1].
+En 1890, il enlève le premier prix d'histoire au Concours général.
 En 1903, il entre à l’Institut Pasteur de Paris, en tant que préparateur et gravit les échelons. 
-Il s'engage dans le conflit de la Première Guerre mondiale, et en 1915, il est affecté au laboratoire bactériologique de la 4e armée[2]. Il officie à Corfou et Salonique ou sévissent des épidémies de dysenterie, choléra et paludisme.
-Il épouse Milda Lydie Yostine en avril 1918[3]; François Simiand et Jacques Duclaux sont témoins majeurs de ce mariage.
+Il s'engage dans le conflit de la Première Guerre mondiale, et en 1915, il est affecté au laboratoire bactériologique de la 4e armée. Il officie à Corfou et Salonique ou sévissent des épidémies de dysenterie, choléra et paludisme.
+Il épouse Milda Lydie Yostine en avril 1918; François Simiand et Jacques Duclaux sont témoins majeurs de ce mariage.
 Il part en Tunisie dès 1919, pour l'Institut Pasteur de Tunis, où il est promu sous-directeur. 
 À Tunis, il devient le directeur-adjoint en 1926.
 Il retourne en Europe, à Genève, où il est nommé secrétaire de commissions à l'Organisation d'hygiène de la Société des Nations (entre 1928 et 1936).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Burnet</t>
+          <t>Étienne_Burnet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Tour blanche, Paris, Ernest Flammarion, 1921
 Loin des icônes, Paris, Ernest Flammarion, 1923
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Burnet</t>
+          <t>Étienne_Burnet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1918)
- Officier de la Légion d'honneur (1928)[4]
+ Officier de la Légion d'honneur (1928)
 Prix Northcliffe en 1927 pour La Porte du Sauveur</t>
         </is>
       </c>
